--- a/Elliot/Mental Health Data.xlsx
+++ b/Elliot/Mental Health Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonou\Dropbox\git\capstone\Elliot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93ED5D0-2510-4436-99A2-A431CF2B83F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1BEC2-AC61-49E8-8507-BF4BFC4DA5F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A46CB04-AB49-4F9D-8AD5-749BEE42F161}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="191">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C8C972-B9E9-4D6A-980D-FE6ED1AC4172}">
   <dimension ref="A1:X158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="L130" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V86" sqref="V86:V88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6131,9 +6131,6 @@
       <c r="U86">
         <v>6.2E-2</v>
       </c>
-      <c r="V86" t="s">
-        <v>83</v>
-      </c>
       <c r="W86">
         <v>11848615018.41375</v>
       </c>
@@ -6184,9 +6181,6 @@
       <c r="N87">
         <v>7.8</v>
       </c>
-      <c r="V87" t="s">
-        <v>84</v>
-      </c>
       <c r="W87">
         <v>5433040159.8874664</v>
       </c>
@@ -6254,9 +6248,6 @@
       </c>
       <c r="U88">
         <v>1.0289999999999999</v>
-      </c>
-      <c r="V88" t="s">
-        <v>85</v>
       </c>
       <c r="W88">
         <v>301255380276.25775</v>
